--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E601DF7D-7D79-46DF-B7FB-7F9BC908A9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5312C8-486F-4428-9EC3-6936F5F9D553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="10140" windowHeight="10875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -890,6 +890,29 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>文字のレベルを３段階に分けて使う事</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フォントサイズ、ボールド、ノーマル</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -898,7 +921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -976,6 +999,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1300,7 +1331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,6 +1665,12 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15230,8 +15267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54:W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17480,16 +17517,18 @@
       <c r="K54" s="28"/>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
+      <c r="N54" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="121"/>
+      <c r="T54" s="121"/>
+      <c r="U54" s="121"/>
+      <c r="V54" s="121"/>
+      <c r="W54" s="121"/>
       <c r="X54" s="28"/>
       <c r="Y54" s="28"/>
       <c r="Z54" s="28"/>
@@ -17522,16 +17561,18 @@
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
+      <c r="N55" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="121"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="121"/>
+      <c r="V55" s="121"/>
+      <c r="W55" s="121"/>
       <c r="X55" s="28"/>
       <c r="Y55" s="28"/>
       <c r="Z55" s="28"/>

--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E069F06-C26A-4D18-9DAF-1B19D9694A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812C6424-66ED-4D6B-872C-C303CDC99952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="161">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -880,10 +880,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>IDPW</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1036,10 +1032,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>a_button</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>react_history</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1053,13 +1045,6 @@
   </si>
   <si>
     <t>a_update</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント管理ボタン</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1424,6 +1409,25 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_data</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リセットボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2104,6 +2108,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,15 +2274,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13800,146 +13804,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="103" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100" t="s">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18411,8 +18415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN147"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18421,152 +18425,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="113" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114" t="s">
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114" t="s">
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="130" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="122"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="125"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="123" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124" t="s">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="127"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="126" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="132"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="115" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="120"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="123"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="46"/>
@@ -21781,7 +21785,7 @@
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="E81" s="42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -21912,7 +21916,7 @@
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
@@ -21956,7 +21960,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="28"/>
       <c r="F85" s="42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -22130,7 +22134,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="28"/>
       <c r="F89" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
@@ -22215,7 +22219,7 @@
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
       <c r="E91" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
@@ -22260,7 +22264,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="28"/>
       <c r="F92" s="42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
@@ -22304,7 +22308,7 @@
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
       <c r="F93" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -22388,8 +22392,8 @@
       <c r="B95" s="50"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
-      <c r="E95" s="132" t="s">
-        <v>140</v>
+      <c r="E95" s="79" t="s">
+        <v>137</v>
       </c>
       <c r="F95" s="74"/>
       <c r="G95" s="74"/>
@@ -22434,7 +22438,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="28"/>
       <c r="F96" s="42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
@@ -23363,7 +23367,7 @@
       <c r="U117" s="57"/>
       <c r="V117" s="60"/>
       <c r="W117" s="57" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="X117" s="58"/>
       <c r="Y117" s="58"/>
@@ -23389,7 +23393,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E118" s="58"/>
       <c r="F118" s="58"/>
@@ -23416,7 +23420,7 @@
       <c r="U118" s="57"/>
       <c r="V118" s="60"/>
       <c r="W118" s="57" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="X118" s="58"/>
       <c r="Y118" s="58"/>
@@ -23442,7 +23446,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E119" s="58"/>
       <c r="F119" s="58"/>
@@ -23467,7 +23471,7 @@
       <c r="U119" s="57"/>
       <c r="V119" s="60"/>
       <c r="W119" s="57" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="X119" s="58"/>
       <c r="Y119" s="58"/>
@@ -23475,8 +23479,8 @@
       <c r="AA119" s="57"/>
       <c r="AB119" s="58"/>
       <c r="AC119" s="60"/>
-      <c r="AD119" s="133" t="s">
-        <v>142</v>
+      <c r="AD119" s="80" t="s">
+        <v>139</v>
       </c>
       <c r="AE119" s="71"/>
       <c r="AF119" s="71"/>
@@ -23495,13 +23499,13 @@
         <v>4</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E120" s="58"/>
       <c r="F120" s="58"/>
       <c r="G120" s="56"/>
       <c r="H120" s="57" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I120" s="59"/>
       <c r="J120" s="58"/>
@@ -23521,7 +23525,9 @@
       <c r="T120" s="60"/>
       <c r="U120" s="57"/>
       <c r="V120" s="60"/>
-      <c r="W120" s="57"/>
+      <c r="W120" s="57" t="s">
+        <v>157</v>
+      </c>
       <c r="X120" s="58"/>
       <c r="Y120" s="58"/>
       <c r="Z120" s="60"/>
@@ -24678,8 +24684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4EF61A-B259-4E39-B341-5CF46694A96C}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A47" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="W92" sqref="W92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24688,152 +24694,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27269,7 +27275,7 @@
       <c r="B62" s="24"/>
       <c r="C62" s="21"/>
       <c r="D62" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
@@ -27313,7 +27319,7 @@
       <c r="B63" s="24"/>
       <c r="C63" s="21"/>
       <c r="D63" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
@@ -28347,19 +28353,19 @@
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -28397,19 +28403,19 @@
         <v>2</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -28447,13 +28453,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
@@ -28472,7 +28478,7 @@
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
       <c r="W89" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
@@ -28499,19 +28505,19 @@
         <v>4</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
@@ -28549,13 +28555,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
@@ -28593,12 +28599,18 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="15">
+        <v>6</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
@@ -28613,7 +28625,9 @@
       <c r="T92" s="19"/>
       <c r="U92" s="16"/>
       <c r="V92" s="19"/>
-      <c r="W92" s="16"/>
+      <c r="W92" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="X92" s="17"/>
       <c r="Y92" s="17"/>
       <c r="Z92" s="19"/>
@@ -29714,7 +29728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FE23E-D123-4F62-A767-709AFB1ABBF9}">
   <dimension ref="A1:AN145"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D84" sqref="D84:D88"/>
     </sheetView>
   </sheetViews>
@@ -29724,152 +29738,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -31436,8 +31450,8 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="134" t="s">
-        <v>151</v>
+      <c r="D42" s="81" t="s">
+        <v>148</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -33257,7 +33271,7 @@
       <c r="B85" s="24"/>
       <c r="C85" s="21"/>
       <c r="D85" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
@@ -33345,7 +33359,7 @@
       <c r="B87" s="24"/>
       <c r="C87" s="21"/>
       <c r="D87" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="27"/>
@@ -34559,19 +34573,19 @@
         <v>1</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
@@ -34609,19 +34623,19 @@
         <v>2</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="17"/>
       <c r="K116" s="19"/>
       <c r="L116" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M116" s="17"/>
       <c r="N116" s="19"/>
@@ -34659,13 +34673,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
       <c r="H117" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="17"/>
@@ -34686,7 +34700,7 @@
       <c r="U117" s="16"/>
       <c r="V117" s="19"/>
       <c r="W117" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X117" s="17"/>
       <c r="Y117" s="17"/>
@@ -34713,13 +34727,13 @@
         <v>4</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
       <c r="H118" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="17"/>
@@ -34738,7 +34752,7 @@
       <c r="U118" s="16"/>
       <c r="V118" s="19"/>
       <c r="W118" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X118" s="17"/>
       <c r="Y118" s="17"/>
@@ -34765,13 +34779,13 @@
         <v>5</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
       <c r="H119" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="17"/>
@@ -34788,7 +34802,7 @@
       <c r="U119" s="16"/>
       <c r="V119" s="19"/>
       <c r="W119" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X119" s="17"/>
       <c r="Y119" s="17"/>
@@ -34815,19 +34829,19 @@
         <v>6</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
       <c r="H120" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
@@ -35940,8 +35954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F792A-F08D-46CD-8CCF-AF5C5DC64D09}">
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35950,154 +35964,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93" t="s">
-        <v>131</v>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96" t="s">
+        <v>128</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -37793,7 +37807,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -37837,7 +37851,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -37925,7 +37939,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -38053,7 +38067,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="9"/>
       <c r="D51" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -39470,19 +39484,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -39520,19 +39534,19 @@
         <v>2</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -39566,23 +39580,14 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15">
+      <c r="C86" s="1">
         <v>3</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>105</v>
+      <c r="D86" s="1" t="s">
+        <v>103</v>
       </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="16" t="s">
-        <v>110</v>
+      <c r="H86" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -39594,7 +39599,9 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16"/>
+      <c r="W86" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
@@ -39616,16 +39623,24 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>4</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16"/>
@@ -40821,7 +40836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5D52B1-0029-4A28-B875-E4639FDA348F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="AD83" sqref="AD83"/>
     </sheetView>
   </sheetViews>
@@ -40831,152 +40846,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -42973,7 +42988,7 @@
       <c r="C52" s="10"/>
       <c r="E52" s="63"/>
       <c r="F52" s="65" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G52" s="63"/>
       <c r="H52" s="63"/>
@@ -44132,19 +44147,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -44182,19 +44197,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -44232,13 +44247,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -44259,7 +44274,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -44286,13 +44301,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -44311,7 +44326,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -44320,7 +44335,7 @@
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AE82" s="17"/>
       <c r="AF82" s="17"/>
@@ -44340,13 +44355,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -45505,7 +45520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46F7C8-AC1D-4E5E-89A0-4D67C6407E34}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -45515,152 +45530,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -47402,7 +47417,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
       <c r="D46" s="67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -48814,13 +48829,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -48837,7 +48852,7 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
@@ -50149,8 +50164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9362E3-A890-44BF-8B7B-FC0697EE9BE7}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z89" sqref="Z89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -50159,152 +50174,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -52131,7 +52146,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="38"/>
       <c r="E48" s="66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
@@ -52261,7 +52276,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="38"/>
       <c r="E51" s="66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F51" s="64"/>
       <c r="G51" s="64"/>
@@ -52391,7 +52406,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="38"/>
       <c r="E54" s="66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
@@ -52480,7 +52495,7 @@
       <c r="D56" s="38"/>
       <c r="E56" s="64"/>
       <c r="F56" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
@@ -52565,7 +52580,7 @@
       <c r="C58" s="21"/>
       <c r="D58" s="38"/>
       <c r="E58" s="66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F58" s="64"/>
       <c r="G58" s="64"/>
@@ -53390,19 +53405,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="15"/>
       <c r="H77" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="17"/>
       <c r="K77" s="19"/>
       <c r="L77" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M77" s="17"/>
       <c r="N77" s="19"/>
@@ -53440,19 +53455,19 @@
         <v>2</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -53490,13 +53505,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -53512,7 +53527,9 @@
       <c r="T79" s="19"/>
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
@@ -53538,13 +53555,13 @@
         <v>4</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
@@ -53561,7 +53578,7 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
@@ -53588,21 +53605,25 @@
         <v>5</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -53611,7 +53632,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -53638,25 +53659,21 @@
         <v>6</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="L82" s="16"/>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="O82" s="16"/>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -53665,7 +53682,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -53688,18 +53705,12 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15">
-        <v>7</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="H83" s="16"/>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
@@ -53714,9 +53725,7 @@
       <c r="T83" s="19"/>
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="W83" s="16"/>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
@@ -54775,8 +54784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FDBAE-6220-4BAA-805C-58AC60A2548D}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -54785,154 +54794,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="131" t="s">
-        <v>132</v>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="134" t="s">
+        <v>129</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -57108,7 +57117,7 @@
       <c r="D56" s="38"/>
       <c r="E56" s="64"/>
       <c r="F56" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
@@ -58018,19 +58027,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="15"/>
       <c r="H77" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="17"/>
       <c r="K77" s="19"/>
       <c r="L77" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M77" s="17"/>
       <c r="N77" s="19"/>
@@ -58068,19 +58077,19 @@
         <v>2</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -58118,13 +58127,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -58140,7 +58149,9 @@
       <c r="T79" s="19"/>
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
@@ -58172,15 +58183,19 @@
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -58189,7 +58204,7 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
@@ -58216,25 +58231,21 @@
         <v>5</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="L81" s="16"/>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="O81" s="16"/>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -58243,7 +58254,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -58266,18 +58277,12 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15">
-        <v>6</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="H82" s="16"/>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
@@ -58292,9 +58297,7 @@
       <c r="T82" s="19"/>
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
-      <c r="W82" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="W82" s="16"/>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>

--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E069F06-C26A-4D18-9DAF-1B19D9694A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400C3D0-29F8-472A-8B47-85C2F1BDB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="160">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1365,31 +1365,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>講師が、「呼び出し」を押すと、予約した受講者にアラートが表示される。</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「3．リアクション履歴」</t>
     <rPh sb="9" eb="11">
       <t>リレキ</t>
@@ -1424,6 +1399,37 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>講師が、「呼び出し」を押すと、予約した受講者にアラートが表示される。(どの画面にいても表示される)</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2104,6 +2110,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,15 +2276,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13800,146 +13806,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="103" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100" t="s">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18421,152 +18427,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="113" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114" t="s">
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114" t="s">
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="130" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="122"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="125"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="123" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124" t="s">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="127"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="126" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="132"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="115" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="120"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="123"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="46"/>
@@ -22388,7 +22394,7 @@
       <c r="B95" s="50"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
-      <c r="E95" s="132" t="s">
+      <c r="E95" s="79" t="s">
         <v>140</v>
       </c>
       <c r="F95" s="74"/>
@@ -23475,7 +23481,7 @@
       <c r="AA119" s="57"/>
       <c r="AB119" s="58"/>
       <c r="AC119" s="60"/>
-      <c r="AD119" s="133" t="s">
+      <c r="AD119" s="80" t="s">
         <v>142</v>
       </c>
       <c r="AE119" s="71"/>
@@ -24688,152 +24694,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -29724,152 +29730,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -31436,7 +31442,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="134" t="s">
+      <c r="D42" s="81" t="s">
         <v>151</v>
       </c>
       <c r="E42" s="8"/>
@@ -35940,7 +35946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F792A-F08D-46CD-8CCF-AF5C5DC64D09}">
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -35950,154 +35956,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93" t="s">
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -40831,152 +40837,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -45505,8 +45511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46F7C8-AC1D-4E5E-89A0-4D67C6407E34}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -45515,152 +45521,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -47402,7 +47408,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
       <c r="D46" s="67" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -50149,7 +50155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9362E3-A890-44BF-8B7B-FC0697EE9BE7}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -50159,152 +50165,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -52131,7 +52137,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="38"/>
       <c r="E48" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
@@ -52261,7 +52267,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="38"/>
       <c r="E51" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F51" s="64"/>
       <c r="G51" s="64"/>
@@ -52391,7 +52397,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="38"/>
       <c r="E54" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
@@ -52480,7 +52486,7 @@
       <c r="D56" s="38"/>
       <c r="E56" s="64"/>
       <c r="F56" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
@@ -52565,7 +52571,7 @@
       <c r="C58" s="21"/>
       <c r="D58" s="38"/>
       <c r="E58" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F58" s="64"/>
       <c r="G58" s="64"/>
@@ -54775,7 +54781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FDBAE-6220-4BAA-805C-58AC60A2548D}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
@@ -54785,154 +54791,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="114" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="103" t="s">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="100"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="125">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="128">
         <v>44351</v>
       </c>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="100" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="105"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="131" t="s">
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -57108,7 +57114,7 @@
       <c r="D56" s="38"/>
       <c r="E56" s="64"/>
       <c r="F56" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>

--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400C3D0-29F8-472A-8B47-85C2F1BDB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D55A91-9B55-4608-9BEF-966D5198ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="159">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -636,33 +636,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「３．アカウント管理遷移ボタン」</t>
-    <rPh sb="8" eb="12">
-      <t>カンリセンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ページ下部にあるアカウント管理まで移動する</t>
-    <rPh sb="3" eb="5">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「４．リアクション履歴」</t>
-    <rPh sb="9" eb="11">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>今日一日のリアクションの履歴を閲覧できる</t>
     <rPh sb="0" eb="17">
       <t>キョウイチニチノリアクションノリレキヲエツラン</t>
@@ -715,20 +688,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「５．アカウント管理」</t>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「６．更新ボタン」</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1430,6 +1389,46 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受講者のリアクションの統計を見ることができる。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「4．アカウント管理」</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「5．更新ボタン」</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>デートピッカーで指定した日付のリアクションを確認することができる。</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -12666,6 +12665,146 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0507EAE4-01B6-440D-A221-EB7F7A4450D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3691255" y="2862063"/>
+          <a:ext cx="1028700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デートピッカー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>71755</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373C6D25-750C-4D68-918D-72E59F061702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7806055" y="2862063"/>
+          <a:ext cx="1028700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デートピッカー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13470,6 +13609,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884B6654-66E9-4518-BFB4-277AC2C2FCED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="2876550"/>
+          <a:ext cx="1028700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デートピッカー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13796,7 +14005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:V2"/>
     </sheetView>
   </sheetViews>
@@ -18417,7 +18626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN147"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
@@ -18460,7 +18669,7 @@
       </c>
       <c r="X1" s="117"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -21743,7 +21952,7 @@
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="65" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
@@ -21787,7 +21996,7 @@
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="E81" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -21918,7 +22127,7 @@
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
@@ -21962,7 +22171,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="28"/>
       <c r="F85" s="42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -22136,7 +22345,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="28"/>
       <c r="F89" s="42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
@@ -22221,7 +22430,7 @@
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
       <c r="E91" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
@@ -22266,7 +22475,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="28"/>
       <c r="F92" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
@@ -22310,7 +22519,7 @@
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
       <c r="F93" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -22395,7 +22604,7 @@
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
       <c r="E95" s="79" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F95" s="74"/>
       <c r="G95" s="74"/>
@@ -22440,7 +22649,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="28"/>
       <c r="F96" s="42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
@@ -23342,24 +23551,24 @@
         <v>1</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E117" s="58"/>
       <c r="F117" s="58"/>
       <c r="G117" s="56"/>
       <c r="H117" s="57" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I117" s="59"/>
       <c r="J117" s="58"/>
       <c r="K117" s="60"/>
       <c r="L117" s="57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M117" s="58"/>
       <c r="N117" s="60"/>
       <c r="O117" s="57" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P117" s="58"/>
       <c r="Q117" s="58"/>
@@ -23369,7 +23578,7 @@
       <c r="U117" s="57"/>
       <c r="V117" s="60"/>
       <c r="W117" s="57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X117" s="58"/>
       <c r="Y117" s="58"/>
@@ -23395,24 +23604,24 @@
         <v>2</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E118" s="58"/>
       <c r="F118" s="58"/>
       <c r="G118" s="56"/>
       <c r="H118" s="57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I118" s="59"/>
       <c r="J118" s="58"/>
       <c r="K118" s="60"/>
       <c r="L118" s="57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M118" s="58"/>
       <c r="N118" s="60"/>
       <c r="O118" s="57" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P118" s="58"/>
       <c r="Q118" s="58"/>
@@ -23422,7 +23631,7 @@
       <c r="U118" s="57"/>
       <c r="V118" s="60"/>
       <c r="W118" s="57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X118" s="58"/>
       <c r="Y118" s="58"/>
@@ -23448,19 +23657,19 @@
         <v>3</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E119" s="58"/>
       <c r="F119" s="58"/>
       <c r="G119" s="56"/>
       <c r="H119" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I119" s="59"/>
       <c r="J119" s="58"/>
       <c r="K119" s="60"/>
       <c r="L119" s="57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M119" s="58"/>
       <c r="N119" s="60"/>
@@ -23473,7 +23682,7 @@
       <c r="U119" s="57"/>
       <c r="V119" s="60"/>
       <c r="W119" s="57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X119" s="58"/>
       <c r="Y119" s="58"/>
@@ -23482,7 +23691,7 @@
       <c r="AB119" s="58"/>
       <c r="AC119" s="60"/>
       <c r="AD119" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AE119" s="71"/>
       <c r="AF119" s="71"/>
@@ -23501,24 +23710,24 @@
         <v>4</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E120" s="58"/>
       <c r="F120" s="58"/>
       <c r="G120" s="56"/>
       <c r="H120" s="57" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I120" s="59"/>
       <c r="J120" s="58"/>
       <c r="K120" s="60"/>
       <c r="L120" s="57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M120" s="58"/>
       <c r="N120" s="60"/>
       <c r="O120" s="57" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P120" s="58"/>
       <c r="Q120" s="58"/>
@@ -24727,7 +24936,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -26449,7 +26658,7 @@
       <c r="B43" s="62"/>
       <c r="C43" s="27"/>
       <c r="D43" s="32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
@@ -26493,7 +26702,7 @@
       <c r="B44" s="62"/>
       <c r="C44" s="27"/>
       <c r="D44" s="42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -26579,7 +26788,7 @@
       <c r="B46" s="62"/>
       <c r="C46" s="27"/>
       <c r="D46" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
@@ -26623,7 +26832,7 @@
       <c r="B47" s="62"/>
       <c r="C47" s="27"/>
       <c r="D47" s="42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
@@ -26667,7 +26876,7 @@
       <c r="B48" s="62"/>
       <c r="C48" s="27"/>
       <c r="D48" s="42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
@@ -26753,7 +26962,7 @@
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -26927,7 +27136,7 @@
       <c r="B54" s="24"/>
       <c r="C54" s="27"/>
       <c r="D54" s="32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
@@ -27101,7 +27310,7 @@
       <c r="B58" s="24"/>
       <c r="C58" s="21"/>
       <c r="D58" s="30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
@@ -27275,7 +27484,7 @@
       <c r="B62" s="24"/>
       <c r="C62" s="21"/>
       <c r="D62" s="30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
@@ -27319,7 +27528,7 @@
       <c r="B63" s="24"/>
       <c r="C63" s="21"/>
       <c r="D63" s="43" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
@@ -28353,19 +28562,19 @@
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -28403,19 +28612,19 @@
         <v>2</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -28453,19 +28662,19 @@
         <v>3</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -28478,7 +28687,7 @@
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
       <c r="W89" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
@@ -28505,19 +28714,19 @@
         <v>4</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
@@ -28555,13 +28764,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
@@ -29720,8 +29929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FE23E-D123-4F62-A767-709AFB1ABBF9}">
   <dimension ref="A1:AN145"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84:D88"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29763,7 +29972,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -31443,7 +31652,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
       <c r="D42" s="81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -32959,7 +33168,7 @@
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -33089,7 +33298,7 @@
       <c r="B81" s="24"/>
       <c r="C81" s="27"/>
       <c r="D81" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
@@ -33219,7 +33428,7 @@
       <c r="B84" s="24"/>
       <c r="C84" s="21"/>
       <c r="D84" s="30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
@@ -33263,7 +33472,7 @@
       <c r="B85" s="24"/>
       <c r="C85" s="21"/>
       <c r="D85" s="43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
@@ -33351,7 +33560,7 @@
       <c r="B87" s="24"/>
       <c r="C87" s="21"/>
       <c r="D87" s="43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="27"/>
@@ -33523,7 +33732,7 @@
       <c r="B91" s="24"/>
       <c r="C91" s="21"/>
       <c r="D91" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
@@ -34565,19 +34774,19 @@
         <v>1</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
@@ -34615,19 +34824,19 @@
         <v>2</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="17"/>
       <c r="K116" s="19"/>
       <c r="L116" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M116" s="17"/>
       <c r="N116" s="19"/>
@@ -34665,24 +34874,24 @@
         <v>3</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
       <c r="H117" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="17"/>
       <c r="K117" s="19"/>
       <c r="L117" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M117" s="17"/>
       <c r="N117" s="19"/>
       <c r="O117" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
@@ -34692,7 +34901,7 @@
       <c r="U117" s="16"/>
       <c r="V117" s="19"/>
       <c r="W117" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X117" s="17"/>
       <c r="Y117" s="17"/>
@@ -34719,19 +34928,19 @@
         <v>4</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
       <c r="H118" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="17"/>
       <c r="K118" s="19"/>
       <c r="L118" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M118" s="17"/>
       <c r="N118" s="19"/>
@@ -34744,7 +34953,7 @@
       <c r="U118" s="16"/>
       <c r="V118" s="19"/>
       <c r="W118" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X118" s="17"/>
       <c r="Y118" s="17"/>
@@ -34771,13 +34980,13 @@
         <v>5</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
       <c r="H119" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="17"/>
@@ -34794,7 +35003,7 @@
       <c r="U119" s="16"/>
       <c r="V119" s="19"/>
       <c r="W119" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X119" s="17"/>
       <c r="Y119" s="17"/>
@@ -34821,19 +35030,19 @@
         <v>6</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
       <c r="H120" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
@@ -35989,7 +36198,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -36076,7 +36285,7 @@
       <c r="L3" s="94"/>
       <c r="M3" s="95"/>
       <c r="N3" s="96" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
@@ -37799,7 +38008,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -37843,7 +38052,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -37931,7 +38140,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -38059,7 +38268,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="9"/>
       <c r="D51" s="30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -39476,19 +39685,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -39526,19 +39735,19 @@
         <v>2</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -39576,19 +39785,19 @@
         <v>3</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -40827,7 +41036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5D52B1-0029-4A28-B875-E4639FDA348F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="AD83" sqref="AD83"/>
     </sheetView>
   </sheetViews>
@@ -40870,7 +41079,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -42979,7 +43188,7 @@
       <c r="C52" s="10"/>
       <c r="E52" s="63"/>
       <c r="F52" s="65" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G52" s="63"/>
       <c r="H52" s="63"/>
@@ -44138,19 +44347,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -44188,19 +44397,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -44238,24 +44447,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -44265,7 +44474,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -44292,19 +44501,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -44317,7 +44526,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -44326,7 +44535,7 @@
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE82" s="17"/>
       <c r="AF82" s="17"/>
@@ -44346,13 +44555,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -45511,7 +45720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46F7C8-AC1D-4E5E-89A0-4D67C6407E34}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -45554,7 +45763,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -47408,7 +47617,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
       <c r="D46" s="67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -48820,13 +49029,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -48843,7 +49052,7 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
@@ -50153,10 +50362,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9362E3-A890-44BF-8B7B-FC0697EE9BE7}">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -50198,7 +50407,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -52137,7 +52346,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="38"/>
       <c r="E48" s="66" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
@@ -52182,7 +52391,7 @@
       <c r="D49" s="38"/>
       <c r="E49" s="64"/>
       <c r="F49" s="65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G49" s="64"/>
       <c r="H49" s="64"/>
@@ -52225,7 +52434,9 @@
       <c r="C50" s="21"/>
       <c r="D50" s="38"/>
       <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
+      <c r="F50" s="65" t="s">
+        <v>158</v>
+      </c>
       <c r="G50" s="64"/>
       <c r="H50" s="64"/>
       <c r="I50" s="64"/>
@@ -52266,10 +52477,8 @@
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
       <c r="D51" s="38"/>
-      <c r="E51" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="64"/>
       <c r="H51" s="64"/>
       <c r="I51" s="64"/>
@@ -52310,10 +52519,10 @@
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
       <c r="D52" s="38"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65" t="s">
-        <v>62</v>
+      <c r="E52" s="66" t="s">
+        <v>150</v>
       </c>
+      <c r="F52" s="64"/>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
       <c r="I52" s="64"/>
@@ -52355,7 +52564,9 @@
       <c r="C53" s="21"/>
       <c r="D53" s="38"/>
       <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
+      <c r="F53" s="65" t="s">
+        <v>59</v>
+      </c>
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
       <c r="I53" s="64"/>
@@ -52363,11 +52574,11 @@
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
       <c r="U53" s="27"/>
@@ -52396,10 +52607,10 @@
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="66" t="s">
-        <v>156</v>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65" t="s">
+        <v>158</v>
       </c>
-      <c r="F54" s="64"/>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
       <c r="I54" s="64"/>
@@ -52409,16 +52620,16 @@
       <c r="M54" s="64"/>
       <c r="N54" s="64"/>
       <c r="O54" s="64"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
       <c r="U54" s="27"/>
-      <c r="V54" s="75"/>
-      <c r="W54" s="75"/>
-      <c r="X54" s="77"/>
-      <c r="Y54" s="77"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
@@ -52441,9 +52652,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="38"/>
       <c r="E55" s="64"/>
-      <c r="F55" s="65" t="s">
-        <v>63</v>
-      </c>
+      <c r="F55" s="65"/>
       <c r="G55" s="64"/>
       <c r="H55" s="64"/>
       <c r="I55" s="64"/>
@@ -52484,10 +52693,10 @@
       <c r="B56" s="24"/>
       <c r="C56" s="21"/>
       <c r="D56" s="38"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65" t="s">
-        <v>158</v>
+      <c r="E56" s="66" t="s">
+        <v>151</v>
       </c>
+      <c r="F56" s="64"/>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
       <c r="I56" s="64"/>
@@ -52497,16 +52706,16 @@
       <c r="M56" s="64"/>
       <c r="N56" s="64"/>
       <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
       <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
+      <c r="V56" s="75"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -52529,7 +52738,9 @@
       <c r="C57" s="21"/>
       <c r="D57" s="38"/>
       <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
+      <c r="F57" s="65" t="s">
+        <v>60</v>
+      </c>
       <c r="G57" s="64"/>
       <c r="H57" s="64"/>
       <c r="I57" s="64"/>
@@ -52570,10 +52781,10 @@
       <c r="B58" s="24"/>
       <c r="C58" s="21"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="66" t="s">
-        <v>157</v>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65" t="s">
+        <v>153</v>
       </c>
-      <c r="F58" s="64"/>
       <c r="G58" s="64"/>
       <c r="H58" s="64"/>
       <c r="I58" s="64"/>
@@ -52615,9 +52826,7 @@
       <c r="C59" s="21"/>
       <c r="D59" s="38"/>
       <c r="E59" s="64"/>
-      <c r="F59" s="65" t="s">
-        <v>64</v>
-      </c>
+      <c r="F59" s="64"/>
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
       <c r="I59" s="64"/>
@@ -52658,7 +52867,9 @@
       <c r="B60" s="24"/>
       <c r="C60" s="21"/>
       <c r="D60" s="38"/>
-      <c r="E60" s="64"/>
+      <c r="E60" s="66" t="s">
+        <v>152</v>
+      </c>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
@@ -52695,30 +52906,32 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
     </row>
-    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -52737,30 +52950,30 @@
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
     </row>
-    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -53076,8 +53289,8 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -53117,367 +53330,351 @@
     </row>
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
-      <c r="AJ71" s="12"/>
-      <c r="AK71" s="12"/>
-      <c r="AL71" s="12"/>
-      <c r="AM71" s="13"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
+      <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
-      <c r="AG72" s="12"/>
-      <c r="AH72" s="12"/>
-      <c r="AI72" s="12"/>
-      <c r="AJ72" s="12"/>
-      <c r="AK72" s="12"/>
-      <c r="AL72" s="12"/>
-      <c r="AM72" s="12"/>
-      <c r="AN72" s="13"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="9"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="9"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
-      <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="4"/>
-      <c r="AL73" s="4"/>
-      <c r="AM73" s="4"/>
-      <c r="AN73" s="5"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="7"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="13"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="5"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6"/>
+      <c r="B76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
-      <c r="AI74" s="4"/>
-      <c r="AJ74" s="4"/>
-      <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="7"/>
-    </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-      <c r="AF75" s="8"/>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
-      <c r="AI75" s="8"/>
-      <c r="AJ75" s="8"/>
-      <c r="AK75" s="8"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="7"/>
-      <c r="AN75" s="7"/>
-    </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6"/>
-      <c r="B76" s="14" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="7"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="17"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T76" s="19"/>
-      <c r="U76" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V76" s="19"/>
-      <c r="W76" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB76" s="17"/>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE76" s="17"/>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
-      <c r="AH76" s="17"/>
-      <c r="AI76" s="17"/>
-      <c r="AJ76" s="17"/>
-      <c r="AK76" s="17"/>
-      <c r="AL76" s="17"/>
-      <c r="AM76" s="20"/>
-      <c r="AN76" s="7"/>
-    </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15">
-        <v>1</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="M77" s="17"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="17"/>
-      <c r="AC77" s="19"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="17"/>
-      <c r="AF77" s="17"/>
-      <c r="AG77" s="17"/>
-      <c r="AH77" s="17"/>
-      <c r="AI77" s="17"/>
-      <c r="AJ77" s="17"/>
-      <c r="AK77" s="17"/>
-      <c r="AL77" s="17"/>
-      <c r="AM77" s="20"/>
-      <c r="AN77" s="7"/>
-    </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15">
-        <v>2</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
-      <c r="O78" s="16"/>
+      <c r="O78" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="19"/>
-      <c r="S78" s="16"/>
+      <c r="S78" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T78" s="19"/>
-      <c r="U78" s="16"/>
+      <c r="U78" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V78" s="19"/>
-      <c r="W78" s="16"/>
+      <c r="W78" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="X78" s="17"/>
       <c r="Y78" s="17"/>
       <c r="Z78" s="19"/>
-      <c r="AA78" s="16"/>
+      <c r="AA78" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AB78" s="17"/>
       <c r="AC78" s="19"/>
-      <c r="AD78" s="16"/>
+      <c r="AD78" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE78" s="17"/>
       <c r="AF78" s="17"/>
       <c r="AG78" s="17"/>
@@ -53493,21 +53690,23 @@
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16"/>
@@ -53541,21 +53740,23 @@
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16"/>
@@ -53566,9 +53767,7 @@
       <c r="T80" s="19"/>
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
-      <c r="W80" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="W80" s="16"/>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
@@ -53591,16 +53790,16 @@
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -53616,9 +53815,7 @@
       <c r="T81" s="19"/>
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="W81" s="16"/>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
@@ -53641,28 +53838,24 @@
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="L82" s="16"/>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="O82" s="16"/>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -53671,7 +53864,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -53695,16 +53888,16 @@
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -53744,19 +53937,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -53764,7 +53967,9 @@
       <c r="T84" s="19"/>
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
-      <c r="W84" s="16"/>
+      <c r="W84" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
@@ -53786,12 +53991,18 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
@@ -53806,7 +54017,9 @@
       <c r="T85" s="19"/>
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
-      <c r="W85" s="16"/>
+      <c r="W85" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
@@ -54708,46 +54921,130 @@
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-      <c r="U107" s="12"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-      <c r="Z107" s="12"/>
-      <c r="AA107" s="12"/>
-      <c r="AB107" s="12"/>
-      <c r="AC107" s="12"/>
-      <c r="AD107" s="12"/>
-      <c r="AE107" s="12"/>
-      <c r="AF107" s="12"/>
-      <c r="AG107" s="12"/>
-      <c r="AH107" s="12"/>
-      <c r="AI107" s="12"/>
-      <c r="AJ107" s="12"/>
-      <c r="AK107" s="12"/>
-      <c r="AL107" s="12"/>
-      <c r="AM107" s="12"/>
-      <c r="AN107" s="13"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="16"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="16"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
+      <c r="AK107" s="17"/>
+      <c r="AL107" s="17"/>
+      <c r="AM107" s="20"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="19"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="16"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+      <c r="AL108" s="17"/>
+      <c r="AM108" s="20"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
+      <c r="AI109" s="12"/>
+      <c r="AJ109" s="12"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="12"/>
+      <c r="AM109" s="12"/>
+      <c r="AN109" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -54779,10 +55076,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FDBAE-6220-4BAA-805C-58AC60A2548D}">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -54824,7 +55121,7 @@
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="117"/>
       <c r="AA1" s="117"/>
@@ -54911,7 +55208,7 @@
       <c r="L3" s="94"/>
       <c r="M3" s="95"/>
       <c r="N3" s="134" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
@@ -56679,7 +56976,7 @@
       <c r="C46" s="27"/>
       <c r="D46" s="64"/>
       <c r="E46" s="65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
@@ -56764,9 +57061,7 @@
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
       <c r="D48" s="38"/>
-      <c r="E48" s="66" t="s">
-        <v>58</v>
-      </c>
+      <c r="E48" s="66"/>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
       <c r="H48" s="64"/>
@@ -56809,9 +57104,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="38"/>
       <c r="E49" s="64"/>
-      <c r="F49" s="65" t="s">
-        <v>59</v>
-      </c>
+      <c r="F49" s="65"/>
       <c r="G49" s="64"/>
       <c r="H49" s="64"/>
       <c r="I49" s="64"/>
@@ -56895,7 +57188,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="38"/>
       <c r="E51" s="66" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="F51" s="64"/>
       <c r="G51" s="64"/>
@@ -56940,7 +57233,7 @@
       <c r="D52" s="38"/>
       <c r="E52" s="64"/>
       <c r="F52" s="65" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
@@ -56983,7 +57276,9 @@
       <c r="C53" s="21"/>
       <c r="D53" s="38"/>
       <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
+      <c r="F53" s="65" t="s">
+        <v>158</v>
+      </c>
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
       <c r="I53" s="64"/>
@@ -56991,11 +57286,11 @@
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
       <c r="U53" s="27"/>
@@ -57024,9 +57319,7 @@
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="66" t="s">
-        <v>66</v>
-      </c>
+      <c r="E54" s="64"/>
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
@@ -57035,11 +57328,11 @@
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
       <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
       <c r="U54" s="27"/>
@@ -57068,10 +57361,10 @@
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="65" t="s">
-        <v>63</v>
+      <c r="E55" s="66" t="s">
+        <v>156</v>
       </c>
+      <c r="F55" s="64"/>
       <c r="G55" s="64"/>
       <c r="H55" s="64"/>
       <c r="I55" s="64"/>
@@ -57114,7 +57407,7 @@
       <c r="D56" s="38"/>
       <c r="E56" s="64"/>
       <c r="F56" s="65" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
@@ -57157,7 +57450,9 @@
       <c r="C57" s="21"/>
       <c r="D57" s="38"/>
       <c r="E57" s="64"/>
-      <c r="F57" s="65"/>
+      <c r="F57" s="65" t="s">
+        <v>153</v>
+      </c>
       <c r="G57" s="64"/>
       <c r="H57" s="64"/>
       <c r="I57" s="64"/>
@@ -57198,10 +57493,8 @@
       <c r="B58" s="24"/>
       <c r="C58" s="21"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
       <c r="G58" s="64"/>
       <c r="H58" s="64"/>
       <c r="I58" s="64"/>
@@ -57242,10 +57535,10 @@
       <c r="B59" s="24"/>
       <c r="C59" s="21"/>
       <c r="D59" s="38"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="65" t="s">
-        <v>64</v>
+      <c r="E59" s="66" t="s">
+        <v>157</v>
       </c>
+      <c r="F59" s="64"/>
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
       <c r="I59" s="64"/>
@@ -57287,7 +57580,9 @@
       <c r="C60" s="21"/>
       <c r="D60" s="38"/>
       <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
+      <c r="F60" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
       <c r="I60" s="64"/>
@@ -57323,30 +57618,30 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
     </row>
-    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -57704,8 +57999,8 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -57745,49 +58040,49 @@
     </row>
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
-      <c r="AJ71" s="12"/>
-      <c r="AK71" s="12"/>
-      <c r="AL71" s="12"/>
-      <c r="AM71" s="13"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
+      <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -57824,56 +58119,54 @@
       <c r="AJ72" s="12"/>
       <c r="AK72" s="12"/>
       <c r="AL72" s="12"/>
-      <c r="AM72" s="12"/>
-      <c r="AN72" s="13"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="7"/>
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
-      <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="4"/>
-      <c r="AL73" s="4"/>
-      <c r="AM73" s="4"/>
-      <c r="AN73" s="5"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="13"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
-      <c r="B74" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -57910,152 +58203,146 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="7"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="5"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-      <c r="AF75" s="8"/>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
-      <c r="AI75" s="8"/>
-      <c r="AJ75" s="8"/>
-      <c r="AK75" s="8"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="7"/>
+      <c r="B75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="5"/>
       <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16" t="s">
+      <c r="C77" s="15"/>
+      <c r="D77" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="17"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T76" s="19"/>
-      <c r="U76" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V76" s="19"/>
-      <c r="W76" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB76" s="17"/>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE76" s="17"/>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
-      <c r="AH76" s="17"/>
-      <c r="AI76" s="17"/>
-      <c r="AJ76" s="17"/>
-      <c r="AK76" s="17"/>
-      <c r="AL76" s="17"/>
-      <c r="AM76" s="20"/>
-      <c r="AN76" s="7"/>
-    </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15">
-        <v>1</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="15"/>
       <c r="H77" s="16" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="17"/>
       <c r="K77" s="19"/>
       <c r="L77" s="16" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="M77" s="17"/>
       <c r="N77" s="19"/>
-      <c r="O77" s="16"/>
+      <c r="O77" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="19"/>
-      <c r="S77" s="16"/>
+      <c r="S77" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T77" s="19"/>
-      <c r="U77" s="16"/>
+      <c r="U77" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V77" s="19"/>
-      <c r="W77" s="16"/>
+      <c r="W77" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="X77" s="17"/>
       <c r="Y77" s="17"/>
       <c r="Z77" s="19"/>
-      <c r="AA77" s="16"/>
+      <c r="AA77" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AB77" s="17"/>
       <c r="AC77" s="19"/>
-      <c r="AD77" s="16"/>
+      <c r="AD77" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE77" s="17"/>
       <c r="AF77" s="17"/>
       <c r="AG77" s="17"/>
@@ -58071,22 +58358,22 @@
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -58121,21 +58408,23 @@
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16"/>
@@ -58169,16 +58458,16 @@
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
@@ -58194,9 +58483,7 @@
       <c r="T80" s="19"/>
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
-      <c r="W80" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="W80" s="16"/>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
@@ -58219,28 +58506,24 @@
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="L81" s="16"/>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="O81" s="16"/>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -58249,7 +58532,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -58273,24 +58556,28 @@
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -58299,7 +58586,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -58322,12 +58609,18 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>6</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
@@ -58342,7 +58635,9 @@
       <c r="T83" s="19"/>
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
+      <c r="W83" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
@@ -59328,46 +59623,88 @@
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-      <c r="U107" s="12"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-      <c r="Z107" s="12"/>
-      <c r="AA107" s="12"/>
-      <c r="AB107" s="12"/>
-      <c r="AC107" s="12"/>
-      <c r="AD107" s="12"/>
-      <c r="AE107" s="12"/>
-      <c r="AF107" s="12"/>
-      <c r="AG107" s="12"/>
-      <c r="AH107" s="12"/>
-      <c r="AI107" s="12"/>
-      <c r="AJ107" s="12"/>
-      <c r="AK107" s="12"/>
-      <c r="AL107" s="12"/>
-      <c r="AM107" s="12"/>
-      <c r="AN107" s="13"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="16"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="16"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
+      <c r="AK107" s="17"/>
+      <c r="AL107" s="17"/>
+      <c r="AM107" s="20"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+      <c r="AM108" s="12"/>
+      <c r="AN108" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\E-5\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711476EC-938B-4117-9C6F-A1FAD52F4066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD73634-64D4-43E1-84CA-FA97AE8D75DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="132">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -667,10 +667,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>IDPW</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -680,10 +676,6 @@
   </si>
   <si>
     <t>reaction</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>reservation</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -703,13 +695,6 @@
   </si>
   <si>
     <t>リアクション</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -776,10 +761,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>a_button</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>react_history</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -793,13 +774,6 @@
   </si>
   <si>
     <t>a_update</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント管理ボタン</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1170,6 +1144,18 @@
   </si>
   <si>
     <t>5.リセット</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リセットボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_data</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -16307,8 +16293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN147"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W119" sqref="W119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -19677,7 +19663,7 @@
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -19808,7 +19794,7 @@
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
       <c r="F84" s="41" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
@@ -19852,7 +19838,7 @@
       <c r="D85" s="28"/>
       <c r="E85" s="27"/>
       <c r="F85" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
@@ -20026,7 +20012,7 @@
       <c r="D89" s="28"/>
       <c r="E89" s="27"/>
       <c r="F89" s="41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
@@ -20111,7 +20097,7 @@
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="E91" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
@@ -20156,7 +20142,7 @@
       <c r="D92" s="28"/>
       <c r="E92" s="27"/>
       <c r="F92" s="41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
@@ -20200,7 +20186,7 @@
       <c r="D93" s="28"/>
       <c r="E93" s="27"/>
       <c r="F93" s="41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
@@ -20285,7 +20271,7 @@
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="E95" s="77" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="72"/>
@@ -20330,7 +20316,7 @@
       <c r="D96" s="28"/>
       <c r="E96" s="27"/>
       <c r="F96" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -21259,7 +21245,7 @@
       <c r="U117" s="56"/>
       <c r="V117" s="59"/>
       <c r="W117" s="56" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="X117" s="57"/>
       <c r="Y117" s="57"/>
@@ -21285,7 +21271,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="56" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E118" s="57"/>
       <c r="F118" s="57"/>
@@ -21312,7 +21298,7 @@
       <c r="U118" s="56"/>
       <c r="V118" s="59"/>
       <c r="W118" s="56" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="X118" s="57"/>
       <c r="Y118" s="57"/>
@@ -21338,7 +21324,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E119" s="57"/>
       <c r="F119" s="57"/>
@@ -21363,7 +21349,7 @@
       <c r="U119" s="56"/>
       <c r="V119" s="59"/>
       <c r="W119" s="56" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="X119" s="57"/>
       <c r="Y119" s="57"/>
@@ -21372,7 +21358,7 @@
       <c r="AB119" s="57"/>
       <c r="AC119" s="59"/>
       <c r="AD119" s="78" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AE119" s="69"/>
       <c r="AF119" s="69"/>
@@ -21391,13 +21377,13 @@
         <v>4</v>
       </c>
       <c r="D120" s="56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E120" s="57"/>
       <c r="F120" s="57"/>
       <c r="G120" s="55"/>
       <c r="H120" s="56" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I120" s="58"/>
       <c r="J120" s="57"/>
@@ -22574,8 +22560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4EF61A-B259-4E39-B341-5CF46694A96C}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24817,7 +24803,7 @@
       <c r="B54" s="23"/>
       <c r="C54" s="21"/>
       <c r="D54" s="29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
@@ -24991,7 +24977,7 @@
       <c r="B58" s="23"/>
       <c r="C58" s="21"/>
       <c r="D58" s="29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -25035,7 +25021,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="21"/>
       <c r="D59" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
@@ -26069,19 +26055,19 @@
         <v>1</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -26119,19 +26105,19 @@
         <v>2</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -26169,13 +26155,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -26194,7 +26180,7 @@
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
@@ -26221,19 +26207,19 @@
         <v>4</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -26271,13 +26257,13 @@
         <v>5</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -27436,8 +27422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FE23E-D123-4F62-A767-709AFB1ABBF9}">
   <dimension ref="A1:AN145"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T83" sqref="T83"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:W119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29159,7 +29145,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
       <c r="D42" s="79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -30979,7 +30965,7 @@
       <c r="B85" s="23"/>
       <c r="C85" s="21"/>
       <c r="D85" s="42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
@@ -31067,7 +31053,7 @@
       <c r="B87" s="23"/>
       <c r="C87" s="21"/>
       <c r="D87" s="42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E87" s="31"/>
       <c r="F87" s="26"/>
@@ -32281,19 +32267,19 @@
         <v>1</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
@@ -32331,19 +32317,19 @@
         <v>2</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="17"/>
       <c r="K116" s="19"/>
       <c r="L116" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M116" s="17"/>
       <c r="N116" s="19"/>
@@ -32381,13 +32367,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
       <c r="H117" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="17"/>
@@ -32408,7 +32394,7 @@
       <c r="U117" s="16"/>
       <c r="V117" s="19"/>
       <c r="W117" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X117" s="17"/>
       <c r="Y117" s="17"/>
@@ -32435,13 +32421,13 @@
         <v>4</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
       <c r="H118" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="17"/>
@@ -32460,7 +32446,7 @@
       <c r="U118" s="16"/>
       <c r="V118" s="19"/>
       <c r="W118" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X118" s="17"/>
       <c r="Y118" s="17"/>
@@ -32487,13 +32473,13 @@
         <v>5</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
       <c r="H119" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="17"/>
@@ -32510,7 +32496,7 @@
       <c r="U119" s="16"/>
       <c r="V119" s="19"/>
       <c r="W119" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X119" s="17"/>
       <c r="Y119" s="17"/>
@@ -32537,19 +32523,19 @@
         <v>6</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
       <c r="H120" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
@@ -33662,8 +33648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F792A-F08D-46CD-8CCF-AF5C5DC64D09}">
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33792,7 +33778,7 @@
       <c r="L3" s="92"/>
       <c r="M3" s="93"/>
       <c r="N3" s="94" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O3" s="95"/>
       <c r="P3" s="95"/>
@@ -35515,7 +35501,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -35559,7 +35545,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -35647,7 +35633,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -35775,7 +35761,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="9"/>
       <c r="D51" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -37192,19 +37178,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -37242,19 +37228,19 @@
         <v>2</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -37292,20 +37278,18 @@
         <v>3</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="L86" s="16"/>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16"/>
@@ -37316,7 +37300,9 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16"/>
+      <c r="W86" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
@@ -37338,16 +37324,24 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>4</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16"/>
@@ -38543,8 +38537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9362E3-A890-44BF-8B7B-FC0697EE9BE7}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T58" sqref="T58"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40525,7 +40519,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="37"/>
       <c r="E48" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F48" s="62"/>
       <c r="G48" s="62"/>
@@ -40614,7 +40608,7 @@
       <c r="D50" s="37"/>
       <c r="E50" s="62"/>
       <c r="F50" s="63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
@@ -40699,7 +40693,7 @@
       <c r="C52" s="21"/>
       <c r="D52" s="37"/>
       <c r="E52" s="64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
@@ -40788,7 +40782,7 @@
       <c r="D54" s="37"/>
       <c r="E54" s="62"/>
       <c r="F54" s="63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
@@ -40873,7 +40867,7 @@
       <c r="C56" s="21"/>
       <c r="D56" s="37"/>
       <c r="E56" s="64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
@@ -40962,7 +40956,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="62"/>
       <c r="F58" s="63" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G58" s="62"/>
       <c r="H58" s="62"/>
@@ -41047,7 +41041,7 @@
       <c r="C60" s="21"/>
       <c r="D60" s="37"/>
       <c r="E60" s="64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F60" s="62"/>
       <c r="G60" s="62"/>
@@ -41872,19 +41866,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -41922,19 +41916,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -41972,13 +41966,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -41994,7 +41988,9 @@
       <c r="T81" s="19"/>
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
@@ -42020,13 +42016,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -42070,21 +42066,25 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -42093,7 +42093,7 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
@@ -42120,25 +42120,21 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="L84" s="16"/>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="O84" s="16"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -42147,7 +42143,7 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
@@ -42170,18 +42166,12 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15">
-        <v>7</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="H85" s="16"/>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
@@ -42196,9 +42186,7 @@
       <c r="T85" s="19"/>
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
-      <c r="W85" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="W85" s="16"/>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
@@ -43257,8 +43245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FDBAE-6220-4BAA-805C-58AC60A2548D}">
   <dimension ref="A1:AN108"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43387,7 +43375,7 @@
       <c r="L3" s="92"/>
       <c r="M3" s="93"/>
       <c r="N3" s="132" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O3" s="95"/>
       <c r="P3" s="95"/>
@@ -45367,7 +45355,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="37"/>
       <c r="E51" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
@@ -45412,7 +45400,7 @@
       <c r="D52" s="37"/>
       <c r="E52" s="62"/>
       <c r="F52" s="63" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
@@ -45456,7 +45444,7 @@
       <c r="D53" s="37"/>
       <c r="E53" s="62"/>
       <c r="F53" s="63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
@@ -45541,7 +45529,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="37"/>
       <c r="E55" s="64" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F55" s="62"/>
       <c r="G55" s="62"/>
@@ -45630,7 +45618,7 @@
       <c r="D57" s="37"/>
       <c r="E57" s="62"/>
       <c r="F57" s="63" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
@@ -45715,7 +45703,7 @@
       <c r="C59" s="21"/>
       <c r="D59" s="37"/>
       <c r="E59" s="64" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
@@ -46540,19 +46528,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -46590,19 +46578,19 @@
         <v>2</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -46640,13 +46628,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
@@ -46662,7 +46650,9 @@
       <c r="T80" s="19"/>
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
+      <c r="W80" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
@@ -46688,21 +46678,25 @@
         <v>4</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -46711,7 +46705,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -46738,25 +46732,21 @@
         <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="L82" s="16"/>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="O82" s="16"/>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -46765,7 +46755,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -46788,18 +46778,12 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15">
-        <v>6</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="H83" s="16"/>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
@@ -46814,9 +46798,7 @@
       <c r="T83" s="19"/>
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="W83" s="16"/>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>

--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD73634-64D4-43E1-84CA-FA97AE8D75DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA06103-8E75-4BC7-934E-07589388900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33648,7 +33648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F792A-F08D-46CD-8CCF-AF5C5DC64D09}">
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
